--- a/3_normal_form.xlsx
+++ b/3_normal_form.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemX\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project_AIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352C6F5E-4862-4CEE-80E8-54B59CCCF624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="3030" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3168" yWindow="3036" windowWidth="21600" windowHeight="11388"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +32,6 @@
     <t>last_name</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
     <t>user_id</t>
   </si>
   <si>
@@ -109,12 +105,15 @@
   </si>
   <si>
     <t>description_photo</t>
+  </si>
+  <si>
+    <t>role(не нужно больше)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,10 +222,19 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -236,18 +244,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,201 +526,202 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="J1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="J1" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
